--- a/Data/raw/peak_weed_biomass_2025.xlsx
+++ b/Data/raw/peak_weed_biomass_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/False-Seed-Bed-Trial/Data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671A8281-8659-4B42-8E75-9467F6725363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57BB03C-3256-E342-83B6-CEFD6C9EF47B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21100" windowWidth="34160" windowHeight="21100" xr2:uid="{41E6EF2F-4323-4D94-B099-8D8DBE754337}"/>
+    <workbookView xWindow="40" yWindow="-21100" windowWidth="34160" windowHeight="21100" xr2:uid="{41E6EF2F-4323-4D94-B099-8D8DBE754337}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -720,17 +720,17 @@
   <dimension ref="A1:I89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="8" width="14.83203125" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
